--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd22-Ptprc.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd22-Ptprc.xlsx
@@ -534,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.14919102604529</v>
+        <v>8.889220333333332</v>
       </c>
       <c r="H2">
-        <v>7.14919102604529</v>
+        <v>26.667661</v>
       </c>
       <c r="I2">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="J2">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.179585167619945</v>
+        <v>0.2524303333333334</v>
       </c>
       <c r="N2">
-        <v>0.179585167619945</v>
+        <v>0.757291</v>
       </c>
       <c r="O2">
-        <v>0.0003678407018920133</v>
+        <v>0.0004152138066912919</v>
       </c>
       <c r="P2">
-        <v>0.0003678407018920133</v>
+        <v>0.0004153435393530768</v>
       </c>
       <c r="Q2">
-        <v>1.28388866875935</v>
+        <v>2.243908851816778</v>
       </c>
       <c r="R2">
-        <v>1.28388866875935</v>
+        <v>20.195179666351</v>
       </c>
       <c r="S2">
-        <v>0.0002661110006371324</v>
+        <v>0.0002370572903283445</v>
       </c>
       <c r="T2">
-        <v>0.0002661110006371324</v>
+        <v>0.0002371313583693735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.14919102604529</v>
+        <v>8.889220333333332</v>
       </c>
       <c r="H3">
-        <v>7.14919102604529</v>
+        <v>26.667661</v>
       </c>
       <c r="I3">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="J3">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.251586353945863</v>
+        <v>0.3565143333333333</v>
       </c>
       <c r="N3">
-        <v>0.251586353945863</v>
+        <v>1.069543</v>
       </c>
       <c r="O3">
-        <v>0.0005153192897185608</v>
+        <v>0.0005864179297654724</v>
       </c>
       <c r="P3">
-        <v>0.0005153192897185608</v>
+        <v>0.0005866011547876679</v>
       </c>
       <c r="Q3">
-        <v>1.798638903905218</v>
+        <v>3.169134460991444</v>
       </c>
       <c r="R3">
-        <v>1.798638903905218</v>
+        <v>28.522210148923</v>
       </c>
       <c r="S3">
-        <v>0.0003728030398193409</v>
+        <v>0.0003348025600061912</v>
       </c>
       <c r="T3">
-        <v>0.0003728030398193409</v>
+        <v>0.0003349071683467185</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.14919102604529</v>
+        <v>8.889220333333332</v>
       </c>
       <c r="H4">
-        <v>7.14919102604529</v>
+        <v>26.667661</v>
       </c>
       <c r="I4">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="J4">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>224.901679852093</v>
+        <v>343.6225723333334</v>
       </c>
       <c r="N4">
-        <v>224.901679852093</v>
+        <v>1030.867717</v>
       </c>
       <c r="O4">
-        <v>0.4606616062444728</v>
+        <v>0.5652127240000627</v>
       </c>
       <c r="P4">
-        <v>0.4606616062444728</v>
+        <v>0.5653893235012776</v>
       </c>
       <c r="Q4">
-        <v>1607.865071341094</v>
+        <v>3054.536756977771</v>
       </c>
       <c r="R4">
-        <v>1607.865071341094</v>
+        <v>27490.83081279994</v>
       </c>
       <c r="S4">
-        <v>0.3332614372533824</v>
+        <v>0.3226959090745654</v>
       </c>
       <c r="T4">
-        <v>0.3332614372533824</v>
+        <v>0.3227967347180211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.14919102604529</v>
+        <v>8.889220333333332</v>
       </c>
       <c r="H5">
-        <v>7.14919102604529</v>
+        <v>26.667661</v>
       </c>
       <c r="I5">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="J5">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>262.730760991491</v>
+        <v>263.1514486666667</v>
       </c>
       <c r="N5">
-        <v>262.730760991491</v>
+        <v>789.454346</v>
       </c>
       <c r="O5">
-        <v>0.538146155456769</v>
+        <v>0.432848593488691</v>
       </c>
       <c r="P5">
-        <v>0.538146155456769</v>
+        <v>0.4329838361017211</v>
       </c>
       <c r="Q5">
-        <v>1878.312398746418</v>
+        <v>2339.211208233856</v>
       </c>
       <c r="R5">
-        <v>1878.312398746418</v>
+        <v>21052.9008741047</v>
       </c>
       <c r="S5">
-        <v>0.3893169276293618</v>
+        <v>0.2471254882214305</v>
       </c>
       <c r="T5">
-        <v>0.3893169276293618</v>
+        <v>0.247202702049259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.14919102604529</v>
+        <v>8.889220333333332</v>
       </c>
       <c r="H6">
-        <v>7.14919102604529</v>
+        <v>26.667661</v>
       </c>
       <c r="I6">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="J6">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.150896513929249</v>
+        <v>0.5696825</v>
       </c>
       <c r="N6">
-        <v>0.150896513929249</v>
+        <v>1.139365</v>
       </c>
       <c r="O6">
-        <v>0.0003090783071476129</v>
+        <v>0.000937050774789659</v>
       </c>
       <c r="P6">
-        <v>0.0003090783071476129</v>
+        <v>0.0006248957028606154</v>
       </c>
       <c r="Q6">
-        <v>1.078788003244505</v>
+        <v>5.064033262544166</v>
       </c>
       <c r="R6">
-        <v>1.078788003244505</v>
+        <v>30.384199575265</v>
       </c>
       <c r="S6">
-        <v>0.0002235998821425369</v>
+        <v>0.0005349887551713031</v>
       </c>
       <c r="T6">
-        <v>0.0002235998821425369</v>
+        <v>0.0003567706075055972</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.73301391356378</v>
+        <v>6.680547666666667</v>
       </c>
       <c r="H7">
-        <v>2.73301391356378</v>
+        <v>20.041643</v>
       </c>
       <c r="I7">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="J7">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.179585167619945</v>
+        <v>0.2524303333333334</v>
       </c>
       <c r="N7">
-        <v>0.179585167619945</v>
+        <v>0.757291</v>
       </c>
       <c r="O7">
-        <v>0.0003678407018920133</v>
+        <v>0.0004152138066912919</v>
       </c>
       <c r="P7">
-        <v>0.0003678407018920133</v>
+        <v>0.0004153435393530768</v>
       </c>
       <c r="Q7">
-        <v>0.4908087617749933</v>
+        <v>1.686372874345889</v>
       </c>
       <c r="R7">
-        <v>0.4908087617749933</v>
+        <v>15.177355869113</v>
       </c>
       <c r="S7">
-        <v>0.0001017297012548809</v>
+        <v>0.0001781565163629474</v>
       </c>
       <c r="T7">
-        <v>0.0001017297012548809</v>
+        <v>0.0001782121809837033</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.73301391356378</v>
+        <v>6.680547666666667</v>
       </c>
       <c r="H8">
-        <v>2.73301391356378</v>
+        <v>20.041643</v>
       </c>
       <c r="I8">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="J8">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.251586353945863</v>
+        <v>0.3565143333333333</v>
       </c>
       <c r="N8">
-        <v>0.251586353945863</v>
+        <v>1.069543</v>
       </c>
       <c r="O8">
-        <v>0.0005153192897185608</v>
+        <v>0.0005864179297654724</v>
       </c>
       <c r="P8">
-        <v>0.0005153192897185608</v>
+        <v>0.0005866011547876679</v>
       </c>
       <c r="Q8">
-        <v>0.6875890057968254</v>
+        <v>2.381710997683222</v>
       </c>
       <c r="R8">
-        <v>0.6875890057968254</v>
+        <v>21.435398979149</v>
       </c>
       <c r="S8">
-        <v>0.0001425162498992198</v>
+        <v>0.0002516153697592812</v>
       </c>
       <c r="T8">
-        <v>0.0001425162498992198</v>
+        <v>0.0002516939864409493</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.73301391356378</v>
+        <v>6.680547666666667</v>
       </c>
       <c r="H9">
-        <v>2.73301391356378</v>
+        <v>20.041643</v>
       </c>
       <c r="I9">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="J9">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>224.901679852093</v>
+        <v>343.6225723333334</v>
       </c>
       <c r="N9">
-        <v>224.901679852093</v>
+        <v>1030.867717</v>
       </c>
       <c r="O9">
-        <v>0.4606616062444728</v>
+        <v>0.5652127240000627</v>
       </c>
       <c r="P9">
-        <v>0.4606616062444728</v>
+        <v>0.5653893235012776</v>
       </c>
       <c r="Q9">
-        <v>614.659420219637</v>
+        <v>2295.586973815448</v>
       </c>
       <c r="R9">
-        <v>614.659420219637</v>
+        <v>20660.28276433903</v>
       </c>
       <c r="S9">
-        <v>0.1274001689910904</v>
+        <v>0.2425168149254973</v>
       </c>
       <c r="T9">
-        <v>0.1274001689910904</v>
+        <v>0.2425925887832564</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.73301391356378</v>
+        <v>6.680547666666667</v>
       </c>
       <c r="H10">
-        <v>2.73301391356378</v>
+        <v>20.041643</v>
       </c>
       <c r="I10">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="J10">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>262.730760991491</v>
+        <v>263.1514486666667</v>
       </c>
       <c r="N10">
-        <v>262.730760991491</v>
+        <v>789.454346</v>
       </c>
       <c r="O10">
-        <v>0.538146155456769</v>
+        <v>0.432848593488691</v>
       </c>
       <c r="P10">
-        <v>0.538146155456769</v>
+        <v>0.4329838361017211</v>
       </c>
       <c r="Q10">
-        <v>718.046825310945</v>
+        <v>1757.995796370053</v>
       </c>
       <c r="R10">
-        <v>718.046825310945</v>
+        <v>15821.96216733048</v>
       </c>
       <c r="S10">
-        <v>0.1488292278274071</v>
+        <v>0.1857231052672604</v>
       </c>
       <c r="T10">
-        <v>0.1488292278274071</v>
+        <v>0.1857811340524622</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.73301391356378</v>
+        <v>6.680547666666667</v>
       </c>
       <c r="H11">
-        <v>2.73301391356378</v>
+        <v>20.041643</v>
       </c>
       <c r="I11">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="J11">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.150896513929249</v>
+        <v>0.5696825</v>
       </c>
       <c r="N11">
-        <v>0.150896513929249</v>
+        <v>1.139365</v>
       </c>
       <c r="O11">
-        <v>0.0003090783071476129</v>
+        <v>0.000937050774789659</v>
       </c>
       <c r="P11">
-        <v>0.0003090783071476129</v>
+        <v>0.0006248957028606154</v>
       </c>
       <c r="Q11">
-        <v>0.4124022720769082</v>
+        <v>3.805791096115833</v>
       </c>
       <c r="R11">
-        <v>0.4124022720769082</v>
+        <v>22.834746576695</v>
       </c>
       <c r="S11">
-        <v>8.547842500507598E-05</v>
+        <v>0.0004020620196183558</v>
       </c>
       <c r="T11">
-        <v>8.547842500507598E-05</v>
+        <v>0.0002681250953550182</v>
       </c>
     </row>
   </sheetData>
